--- a/video_codec_ideas(1).xlsx
+++ b/video_codec_ideas(1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB0A24F-D350-4D35-9B3C-4C653615E494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77EE7B1-2AE4-4EAB-A781-E2A3654D8992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1423,12 +1423,13 @@
   <dimension ref="A1:C257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:C257"/>
+      <selection activeCell="A2" sqref="A1:C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1463,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C33" si="0">(B3-1)*(30/30)</f>
+        <f t="shared" ref="C3:C32" si="0">(B3-1)*(30/30)</f>
         <v>1</v>
       </c>
     </row>
@@ -1835,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C62" si="1">(B34-1)*(30/28)</f>
+        <f t="shared" ref="C34:C61" si="1">(B34-1)*(30/28)</f>
         <v>1.0714285714285714</v>
       </c>
     </row>
@@ -2183,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:C89" si="2">(B63-1)*(30/26)</f>
+        <f t="shared" ref="C63:C88" si="2">(B63-1)*(30/26)</f>
         <v>1.1538461538461537</v>
       </c>
     </row>
@@ -2507,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="C90">
-        <f t="shared" ref="C90:C114" si="3">(B90-1)*(30/24)</f>
+        <f t="shared" ref="C90:C113" si="3">(B90-1)*(30/24)</f>
         <v>1.25</v>
       </c>
     </row>
@@ -2807,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="C115">
-        <f t="shared" ref="C115:C138" si="4">(B115-1)*(30/22)</f>
+        <f t="shared" ref="C115:C136" si="4">(B115-1)*(30/22)</f>
         <v>1.3636363636363635</v>
       </c>
     </row>
@@ -3095,7 +3096,7 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:C159" si="5">(B139-1)*(30/20)</f>
+        <f t="shared" ref="C139:C157" si="5">(B139-1)*(30/20)</f>
         <v>3</v>
       </c>
     </row>
@@ -3347,7 +3348,7 @@
         <v>3</v>
       </c>
       <c r="C160">
-        <f t="shared" ref="C160:C178" si="6">(B160-1)*(30/18)</f>
+        <f t="shared" ref="C160:C176" si="6">(B160-1)*(30/18)</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
@@ -3563,7 +3564,7 @@
         <v>2</v>
       </c>
       <c r="C178">
-        <f t="shared" ref="C178:C195" si="7">(B178-1)*(30/16)</f>
+        <f t="shared" ref="C178:C193" si="7">(B178-1)*(30/16)</f>
         <v>1.875</v>
       </c>
     </row>
@@ -3767,7 +3768,7 @@
         <v>2</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:C210" si="8">(B195-1)*(30/14)</f>
+        <f t="shared" ref="C195:C208" si="8">(B195-1)*(30/14)</f>
         <v>2.1428571428571428</v>
       </c>
     </row>
@@ -3947,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="C210">
-        <f t="shared" ref="C210:C223" si="9">(B210-1)*(30/12)</f>
+        <f t="shared" ref="C210:C221" si="9">(B210-1)*(30/12)</f>
         <v>2.5</v>
       </c>
     </row>
@@ -4103,7 +4104,7 @@
         <v>2</v>
       </c>
       <c r="C223">
-        <f t="shared" ref="C223:C234" si="10">(B223-1)*(30/10)</f>
+        <f t="shared" ref="C223:C232" si="10">(B223-1)*(30/10)</f>
         <v>3</v>
       </c>
     </row>
@@ -4235,7 +4236,7 @@
         <v>2</v>
       </c>
       <c r="C234">
-        <f t="shared" ref="C234:C243" si="11">(B234-1)*(30/8)</f>
+        <f t="shared" ref="C234:C241" si="11">(B234-1)*(30/8)</f>
         <v>3.75</v>
       </c>
     </row>
@@ -4343,7 +4344,7 @@
         <v>2</v>
       </c>
       <c r="C243">
-        <f t="shared" ref="C243:C250" si="12">(B243-1)*(30/6)</f>
+        <f t="shared" ref="C243:C248" si="12">(B243-1)*(30/6)</f>
         <v>5</v>
       </c>
     </row>
@@ -4427,7 +4428,7 @@
         <v>2</v>
       </c>
       <c r="C250">
-        <f t="shared" ref="C250:C255" si="13">(B250-1)*(30/4)</f>
+        <f t="shared" ref="C250:C253" si="13">(B250-1)*(30/4)</f>
         <v>7.5</v>
       </c>
     </row>
@@ -4525,8 +4526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7615,7 +7616,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C257">
-    <sortCondition ref="C2:C257"/>
+    <sortCondition ref="C2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
